--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domag\Documents\Vibe Codes\Chaostimator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D2A0B35-FEDC-41EA-8CA9-3E97E613CBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA257F-5EF0-4E9E-8F1E-30F187D9F717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-5832" yWindow="17172" windowWidth="41496" windowHeight="17496" xr2:uid="{357E4E5A-4249-4CC3-B1F0-5A5404C92E90}"/>
   </bookViews>
@@ -869,7 +869,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
+      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domag\Documents\Vibe Codes\Chaostimator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA257F-5EF0-4E9E-8F1E-30F187D9F717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878639E3-35B7-4BB4-AA7D-B2E65870DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5832" yWindow="17172" windowWidth="41496" windowHeight="17496" xr2:uid="{357E4E5A-4249-4CC3-B1F0-5A5404C92E90}"/>
+    <workbookView xWindow="16524" yWindow="19008" windowWidth="18636" windowHeight="15528" xr2:uid="{357E4E5A-4249-4CC3-B1F0-5A5404C92E90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,9 +453,6 @@
     <t>rarity</t>
   </si>
   <si>
-    <t>pack_size</t>
-  </si>
-  <si>
     <t>currency</t>
   </si>
   <si>
@@ -466,6 +463,9 @@
   </si>
   <si>
     <t>weight</t>
+  </si>
+  <si>
+    <t>packsize</t>
   </si>
 </sst>
 </file>
@@ -869,7 +869,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S3" sqref="S3"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,19 +895,19 @@
         <v>130</v>
       </c>
       <c r="E1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domag\Documents\Vibe Codes\Chaostimator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878639E3-35B7-4BB4-AA7D-B2E65870DCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E645D6-1D02-4881-B8C3-84AB367DC866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16524" yWindow="19008" windowWidth="18636" windowHeight="15528" xr2:uid="{357E4E5A-4249-4CC3-B1F0-5A5404C92E90}"/>
   </bookViews>
@@ -465,7 +465,7 @@
     <t>weight</t>
   </si>
   <si>
-    <t>packsize</t>
+    <t>pack_size</t>
   </si>
 </sst>
 </file>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\domag\Documents\Vibe Codes\Chaostimator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E645D6-1D02-4881-B8C3-84AB367DC866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A3FD846-361D-4C37-969C-F6EE1EE61483}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16524" yWindow="19008" windowWidth="18636" windowHeight="15528" xr2:uid="{357E4E5A-4249-4CC3-B1F0-5A5404C92E90}"/>
+    <workbookView xWindow="5496" yWindow="18192" windowWidth="30144" windowHeight="15528" xr2:uid="{357E4E5A-4249-4CC3-B1F0-5A5404C92E90}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
   <si>
     <t>Area is inhabited by Abominations</t>
   </si>
@@ -466,6 +466,24 @@
   </si>
   <si>
     <t>pack_size</t>
+  </si>
+  <si>
+    <t>mod_group</t>
+  </si>
+  <si>
+    <t>exclusive_with</t>
+  </si>
+  <si>
+    <t>1033, 1028</t>
+  </si>
+  <si>
+    <t>1016, 1025</t>
+  </si>
+  <si>
+    <t>1061, 1063, 1064</t>
+  </si>
+  <si>
+    <t>tier</t>
   </si>
 </sst>
 </file>
@@ -865,23 +883,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB03C3C7-397E-4123-9F34-DB370CD06EAD}">
-  <dimension ref="A1:I407"/>
+  <dimension ref="A1:V407"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="P124" sqref="P124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.5703125" customWidth="1"/>
+    <col min="1" max="1" width="101" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>127</v>
       </c>
@@ -909,8 +930,17 @@
       <c r="I1" s="7" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -938,8 +968,23 @@
       <c r="I2" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J2" s="4">
+        <v>1081</v>
+      </c>
+      <c r="L2" s="3">
+        <v>16</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -967,8 +1012,23 @@
       <c r="I3" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J3" s="4">
+        <v>1090</v>
+      </c>
+      <c r="L3" s="3">
+        <v>16</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -996,8 +1056,23 @@
       <c r="I4" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J4" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L4" s="3">
+        <v>16</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -1025,8 +1100,23 @@
       <c r="I5" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J5" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L5" s="3">
+        <v>16</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1054,8 +1144,23 @@
       <c r="I6" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J6" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L6" s="3">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -1083,8 +1188,23 @@
       <c r="I7" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J7" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L7" s="3">
+        <v>16</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1112,8 +1232,23 @@
       <c r="I8" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J8" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L8" s="3">
+        <v>16</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>5</v>
       </c>
@@ -1141,8 +1276,23 @@
       <c r="I9" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J9" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L9" s="3">
+        <v>16</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
@@ -1170,8 +1320,23 @@
       <c r="I10" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J10" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L10" s="3">
+        <v>16</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1199,8 +1364,23 @@
       <c r="I11" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J11" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L11" s="3">
+        <v>16</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>18</v>
       </c>
@@ -1228,8 +1408,23 @@
       <c r="I12" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J12" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L12" s="3">
+        <v>16</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1257,8 +1452,23 @@
       <c r="I13" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J13" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L13" s="3">
+        <v>16</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1286,8 +1496,23 @@
       <c r="I14" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J14" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L14" s="3">
+        <v>16</v>
+      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1315,8 +1540,23 @@
       <c r="I15" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J15" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L15" s="3">
+        <v>16</v>
+      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -1344,8 +1584,23 @@
       <c r="I16" s="4">
         <v>150</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J16" s="4">
+        <v>1002</v>
+      </c>
+      <c r="L16" s="3">
+        <v>16</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -1373,8 +1628,23 @@
       <c r="I17" s="4">
         <v>650</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J17" s="4">
+        <v>1015</v>
+      </c>
+      <c r="L17" s="3">
+        <v>16</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="1:21" ht="54" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1402,8 +1672,26 @@
       <c r="I18" s="4">
         <v>650</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J18" s="4">
+        <v>1016</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1126</v>
+      </c>
+      <c r="L18" s="3">
+        <v>16</v>
+      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -1431,8 +1719,23 @@
       <c r="I19" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J19" s="4">
+        <v>1017</v>
+      </c>
+      <c r="L19" s="3">
+        <v>16</v>
+      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>12</v>
       </c>
@@ -1460,8 +1763,23 @@
       <c r="I20" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J20" s="4">
+        <v>1079</v>
+      </c>
+      <c r="L20" s="3">
+        <v>16</v>
+      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
@@ -1489,8 +1807,23 @@
       <c r="I21" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J21" s="4">
+        <v>1019</v>
+      </c>
+      <c r="L21" s="3">
+        <v>16</v>
+      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
@@ -1518,8 +1851,23 @@
       <c r="I22" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J22" s="4">
+        <v>1020</v>
+      </c>
+      <c r="L22" s="3">
+        <v>16</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>13</v>
       </c>
@@ -1547,8 +1895,23 @@
       <c r="I23" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="J23" s="4">
+        <v>1083</v>
+      </c>
+      <c r="L23" s="3">
+        <v>16</v>
+      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+    </row>
+    <row r="24" spans="1:21" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>24</v>
       </c>
@@ -1576,8 +1939,23 @@
       <c r="I24" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J24" s="4">
+        <v>1022</v>
+      </c>
+      <c r="L24" s="3">
+        <v>16</v>
+      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
@@ -1605,8 +1983,23 @@
       <c r="I25" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="J25" s="4">
+        <v>1023</v>
+      </c>
+      <c r="L25" s="3">
+        <v>16</v>
+      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+    </row>
+    <row r="26" spans="1:21" ht="36" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
@@ -1634,8 +2027,23 @@
       <c r="I26" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="J26" s="4">
+        <v>1024</v>
+      </c>
+      <c r="L26" s="3">
+        <v>16</v>
+      </c>
+      <c r="M26" s="3"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+    </row>
+    <row r="27" spans="1:21" ht="36" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>15</v>
       </c>
@@ -1663,8 +2071,26 @@
       <c r="I27" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J27" s="4">
+        <v>1025</v>
+      </c>
+      <c r="K27" s="4">
+        <v>1126</v>
+      </c>
+      <c r="L27" s="3">
+        <v>16</v>
+      </c>
+      <c r="M27" s="3"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1692,8 +2118,23 @@
       <c r="I28" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J28" s="4">
+        <v>1026</v>
+      </c>
+      <c r="L28" s="3">
+        <v>16</v>
+      </c>
+      <c r="M28" s="3"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1721,8 +2162,23 @@
       <c r="I29" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J29" s="4">
+        <v>1099</v>
+      </c>
+      <c r="L29" s="3">
+        <v>16</v>
+      </c>
+      <c r="M29" s="3"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -1750,8 +2206,26 @@
       <c r="I30" s="4">
         <v>600</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="J30" s="4">
+        <v>1028</v>
+      </c>
+      <c r="K30" s="4">
+        <v>1096</v>
+      </c>
+      <c r="L30" s="3">
+        <v>16</v>
+      </c>
+      <c r="M30" s="3"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+    </row>
+    <row r="31" spans="1:21" ht="54" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>29</v>
       </c>
@@ -1779,8 +2253,14 @@
       <c r="I31" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J31" s="4">
+        <v>1086</v>
+      </c>
+      <c r="L31" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -1808,8 +2288,14 @@
       <c r="I32" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J32" s="4">
+        <v>1030</v>
+      </c>
+      <c r="L32" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -1837,8 +2323,14 @@
       <c r="I33" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J33" s="4">
+        <v>1085</v>
+      </c>
+      <c r="L33" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -1866,8 +2358,14 @@
       <c r="I34" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J34" s="4">
+        <v>1032</v>
+      </c>
+      <c r="L34" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -1895,8 +2393,17 @@
       <c r="I35" s="4">
         <v>600</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J35" s="4">
+        <v>1033</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1096</v>
+      </c>
+      <c r="L35" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1924,8 +2431,14 @@
       <c r="I36" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="J36" s="4">
+        <v>1034</v>
+      </c>
+      <c r="L36" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="36" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>35</v>
       </c>
@@ -1953,8 +2466,14 @@
       <c r="I37" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J37" s="4">
+        <v>1095</v>
+      </c>
+      <c r="L37" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -1982,8 +2501,14 @@
       <c r="I38" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J38" s="4">
+        <v>1036</v>
+      </c>
+      <c r="L38" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -2011,8 +2536,14 @@
       <c r="I39" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J39" s="4">
+        <v>1078</v>
+      </c>
+      <c r="L39" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -2040,8 +2571,14 @@
       <c r="I40" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J40" s="4">
+        <v>1023</v>
+      </c>
+      <c r="L40" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -2069,8 +2606,14 @@
       <c r="I41" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J41" s="4">
+        <v>1089</v>
+      </c>
+      <c r="L41" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -2098,8 +2641,14 @@
       <c r="I42" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J42" s="4">
+        <v>1091</v>
+      </c>
+      <c r="L42" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -2127,8 +2676,14 @@
       <c r="I43" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="J43" s="4">
+        <v>1080</v>
+      </c>
+      <c r="L43" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" ht="36" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
@@ -2156,8 +2711,14 @@
       <c r="I44" s="4">
         <v>500</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J44" s="4">
+        <v>1042</v>
+      </c>
+      <c r="L44" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -2185,8 +2746,24 @@
       <c r="I45" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J45" s="4">
+        <v>1043</v>
+      </c>
+      <c r="L45" s="3">
+        <v>16</v>
+      </c>
+      <c r="M45" s="3"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>71</v>
       </c>
@@ -2214,8 +2791,24 @@
       <c r="I46" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J46" s="4">
+        <v>1044</v>
+      </c>
+      <c r="L46" s="3">
+        <v>16</v>
+      </c>
+      <c r="M46" s="3"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>72</v>
       </c>
@@ -2243,8 +2836,24 @@
       <c r="I47" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J47" s="4">
+        <v>1045</v>
+      </c>
+      <c r="L47" s="3">
+        <v>16</v>
+      </c>
+      <c r="M47" s="3"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>73</v>
       </c>
@@ -2272,8 +2881,24 @@
       <c r="I48" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J48" s="4">
+        <v>1046</v>
+      </c>
+      <c r="L48" s="3">
+        <v>16</v>
+      </c>
+      <c r="M48" s="3"/>
+      <c r="N48" s="4"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="R48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>44</v>
       </c>
@@ -2301,8 +2926,24 @@
       <c r="I49" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J49" s="4">
+        <v>1047</v>
+      </c>
+      <c r="L49" s="3">
+        <v>16</v>
+      </c>
+      <c r="M49" s="3"/>
+      <c r="N49" s="4"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="4"/>
+      <c r="Q49" s="4"/>
+      <c r="R49" s="4"/>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
@@ -2330,8 +2971,24 @@
       <c r="I50" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J50" s="4">
+        <v>1048</v>
+      </c>
+      <c r="L50" s="3">
+        <v>16</v>
+      </c>
+      <c r="M50" s="3"/>
+      <c r="N50" s="4"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="4"/>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>75</v>
       </c>
@@ -2359,8 +3016,24 @@
       <c r="I51" s="4">
         <v>650</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J51" s="4">
+        <v>1049</v>
+      </c>
+      <c r="L51" s="3">
+        <v>16</v>
+      </c>
+      <c r="M51" s="3"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>76</v>
       </c>
@@ -2388,8 +3061,24 @@
       <c r="I52" s="4">
         <v>600</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J52" s="4">
+        <v>1050</v>
+      </c>
+      <c r="L52" s="3">
+        <v>16</v>
+      </c>
+      <c r="M52" s="3"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>77</v>
       </c>
@@ -2417,8 +3106,24 @@
       <c r="I53" s="4">
         <v>600</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J53" s="4">
+        <v>1051</v>
+      </c>
+      <c r="L53" s="3">
+        <v>16</v>
+      </c>
+      <c r="M53" s="3"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>78</v>
       </c>
@@ -2446,8 +3151,24 @@
       <c r="I54" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J54" s="4">
+        <v>1052</v>
+      </c>
+      <c r="L54" s="3">
+        <v>16</v>
+      </c>
+      <c r="M54" s="3"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+      <c r="R54" s="4"/>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>79</v>
       </c>
@@ -2475,8 +3196,24 @@
       <c r="I55" s="4">
         <v>250</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J55" s="4">
+        <v>1053</v>
+      </c>
+      <c r="L55" s="3">
+        <v>16</v>
+      </c>
+      <c r="M55" s="3"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>80</v>
       </c>
@@ -2504,8 +3241,24 @@
       <c r="I56" s="4">
         <v>250</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J56" s="4">
+        <v>1053</v>
+      </c>
+      <c r="L56" s="3">
+        <v>16</v>
+      </c>
+      <c r="M56" s="3"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>81</v>
       </c>
@@ -2533,8 +3286,24 @@
       <c r="I57" s="4">
         <v>250</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J57" s="4">
+        <v>1053</v>
+      </c>
+      <c r="L57" s="3">
+        <v>16</v>
+      </c>
+      <c r="M57" s="3"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>82</v>
       </c>
@@ -2562,8 +3331,24 @@
       <c r="I58" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="J58" s="4">
+        <v>1056</v>
+      </c>
+      <c r="L58" s="3">
+        <v>16</v>
+      </c>
+      <c r="M58" s="3"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+    </row>
+    <row r="59" spans="1:22" ht="36" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>83</v>
       </c>
@@ -2591,8 +3376,24 @@
       <c r="I59" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J59" s="4">
+        <v>1110</v>
+      </c>
+      <c r="L59" s="3">
+        <v>16</v>
+      </c>
+      <c r="M59" s="3"/>
+      <c r="N59" s="4"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="4"/>
+      <c r="Q59" s="4"/>
+      <c r="R59" s="4"/>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>84</v>
       </c>
@@ -2620,8 +3421,24 @@
       <c r="I60" s="4">
         <v>600</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J60" s="4">
+        <v>1108</v>
+      </c>
+      <c r="L60" s="3">
+        <v>16</v>
+      </c>
+      <c r="M60" s="3"/>
+      <c r="N60" s="4"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="4"/>
+      <c r="Q60" s="4"/>
+      <c r="R60" s="4"/>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>85</v>
       </c>
@@ -2649,8 +3466,24 @@
       <c r="I61" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J61" s="4">
+        <v>1059</v>
+      </c>
+      <c r="L61" s="3">
+        <v>16</v>
+      </c>
+      <c r="M61" s="3"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>86</v>
       </c>
@@ -2678,8 +3511,24 @@
       <c r="I62" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J62" s="4">
+        <v>1127</v>
+      </c>
+      <c r="L62" s="3">
+        <v>16</v>
+      </c>
+      <c r="M62" s="3"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>87</v>
       </c>
@@ -2707,8 +3556,27 @@
       <c r="I63" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J63" s="4">
+        <v>1061</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1109</v>
+      </c>
+      <c r="L63" s="3">
+        <v>16</v>
+      </c>
+      <c r="M63" s="3"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>88</v>
       </c>
@@ -2736,8 +3604,24 @@
       <c r="I64" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J64" s="4">
+        <v>1062</v>
+      </c>
+      <c r="L64" s="3">
+        <v>16</v>
+      </c>
+      <c r="M64" s="3"/>
+      <c r="N64" s="4"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="4"/>
+      <c r="Q64" s="4"/>
+      <c r="R64" s="4"/>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>89</v>
       </c>
@@ -2765,8 +3649,27 @@
       <c r="I65" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J65" s="4">
+        <v>1063</v>
+      </c>
+      <c r="K65" s="4">
+        <v>1109</v>
+      </c>
+      <c r="L65" s="3">
+        <v>16</v>
+      </c>
+      <c r="M65" s="3"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>90</v>
       </c>
@@ -2794,8 +3697,27 @@
       <c r="I66" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J66" s="4">
+        <v>1064</v>
+      </c>
+      <c r="K66" s="4">
+        <v>1109</v>
+      </c>
+      <c r="L66" s="3">
+        <v>16</v>
+      </c>
+      <c r="M66" s="3"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>45</v>
       </c>
@@ -2823,8 +3745,24 @@
       <c r="I67" s="4">
         <v>1000</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J67" s="4">
+        <v>1116</v>
+      </c>
+      <c r="L67" s="3">
+        <v>16</v>
+      </c>
+      <c r="M67" s="3"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>91</v>
       </c>
@@ -2852,8 +3790,14 @@
       <c r="I68" s="4">
         <v>600</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J68" s="4">
+        <v>1066</v>
+      </c>
+      <c r="L68" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>92</v>
       </c>
@@ -2881,8 +3825,14 @@
       <c r="I69" s="4">
         <v>750</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J69" s="4">
+        <v>1066</v>
+      </c>
+      <c r="L69" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>46</v>
       </c>
@@ -2910,8 +3860,14 @@
       <c r="I70" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="J70" s="4">
+        <v>1068</v>
+      </c>
+      <c r="L70" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>93</v>
       </c>
@@ -2939,8 +3895,14 @@
       <c r="I71" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J71" s="4">
+        <v>1069</v>
+      </c>
+      <c r="L71" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>47</v>
       </c>
@@ -2968,8 +3930,14 @@
       <c r="I72" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J72" s="4">
+        <v>1070</v>
+      </c>
+      <c r="L72" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>48</v>
       </c>
@@ -2997,8 +3965,14 @@
       <c r="I73" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J73" s="4">
+        <v>1119</v>
+      </c>
+      <c r="L73" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>94</v>
       </c>
@@ -3026,8 +4000,14 @@
       <c r="I74" s="4">
         <v>250</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J74" s="4">
+        <v>1053</v>
+      </c>
+      <c r="L74" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>95</v>
       </c>
@@ -3055,8 +4035,14 @@
       <c r="I75" s="4">
         <v>250</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J75" s="4">
+        <v>1053</v>
+      </c>
+      <c r="L75" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>49</v>
       </c>
@@ -3084,8 +4070,14 @@
       <c r="I76" s="4">
         <v>650</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J76" s="4">
+        <v>1074</v>
+      </c>
+      <c r="L76" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>50</v>
       </c>
@@ -3113,8 +4105,14 @@
       <c r="I77" s="4">
         <v>650</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J77" s="4">
+        <v>1128</v>
+      </c>
+      <c r="L77" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>96</v>
       </c>
@@ -3142,8 +4140,14 @@
       <c r="I78" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J78" s="4">
+        <v>1076</v>
+      </c>
+      <c r="L78" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>51</v>
       </c>
@@ -3171,8 +4175,14 @@
       <c r="I79" s="4">
         <v>800</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J79" s="4">
+        <v>1077</v>
+      </c>
+      <c r="L79" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>97</v>
       </c>
@@ -3200,8 +4210,14 @@
       <c r="I80" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J80" s="4">
+        <v>1078</v>
+      </c>
+      <c r="L80" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>52</v>
       </c>
@@ -3229,8 +4245,14 @@
       <c r="I81" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J81" s="4">
+        <v>1079</v>
+      </c>
+      <c r="L81" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>98</v>
       </c>
@@ -3258,8 +4280,14 @@
       <c r="I82" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J82" s="4">
+        <v>1080</v>
+      </c>
+      <c r="L82" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>99</v>
       </c>
@@ -3287,8 +4315,14 @@
       <c r="I83" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J83" s="4">
+        <v>1081</v>
+      </c>
+      <c r="L83" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>100</v>
       </c>
@@ -3316,8 +4350,14 @@
       <c r="I84" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J84" s="4">
+        <v>1082</v>
+      </c>
+      <c r="L84" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>13</v>
       </c>
@@ -3345,8 +4385,14 @@
       <c r="I85" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J85" s="4">
+        <v>1083</v>
+      </c>
+      <c r="L85" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>101</v>
       </c>
@@ -3374,8 +4420,14 @@
       <c r="I86" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J86" s="4">
+        <v>1084</v>
+      </c>
+      <c r="L86" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>102</v>
       </c>
@@ -3403,8 +4455,14 @@
       <c r="I87" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="J87" s="4">
+        <v>1085</v>
+      </c>
+      <c r="L87" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="54" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>103</v>
       </c>
@@ -3432,8 +4490,14 @@
       <c r="I88" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J88" s="4">
+        <v>1086</v>
+      </c>
+      <c r="L88" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>104</v>
       </c>
@@ -3461,8 +4525,14 @@
       <c r="I89" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J89" s="4">
+        <v>1087</v>
+      </c>
+      <c r="L89" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>53</v>
       </c>
@@ -3490,8 +4560,14 @@
       <c r="I90" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J90" s="4">
+        <v>1103</v>
+      </c>
+      <c r="L90" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>105</v>
       </c>
@@ -3519,8 +4595,14 @@
       <c r="I91" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J91" s="4">
+        <v>1089</v>
+      </c>
+      <c r="L91" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>17</v>
       </c>
@@ -3548,8 +4630,14 @@
       <c r="I92" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J92" s="4">
+        <v>1090</v>
+      </c>
+      <c r="L92" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>106</v>
       </c>
@@ -3577,8 +4665,14 @@
       <c r="I93" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J93" s="4">
+        <v>1091</v>
+      </c>
+      <c r="L93" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>107</v>
       </c>
@@ -3606,8 +4700,14 @@
       <c r="I94" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J94" s="4">
+        <v>1092</v>
+      </c>
+      <c r="L94" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>54</v>
       </c>
@@ -3635,8 +4735,14 @@
       <c r="I95" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J95" s="4">
+        <v>1093</v>
+      </c>
+      <c r="L95" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>108</v>
       </c>
@@ -3664,8 +4770,14 @@
       <c r="I96" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="J96" s="4">
+        <v>1094</v>
+      </c>
+      <c r="L96" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="54" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>109</v>
       </c>
@@ -3693,8 +4805,14 @@
       <c r="I97" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="J97" s="4">
+        <v>1095</v>
+      </c>
+      <c r="L97" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>110</v>
       </c>
@@ -3722,8 +4840,17 @@
       <c r="I98" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J98" s="4">
+        <v>1096</v>
+      </c>
+      <c r="K98" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="L98" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>55</v>
       </c>
@@ -3751,8 +4878,14 @@
       <c r="I99" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J99" s="4">
+        <v>1097</v>
+      </c>
+      <c r="L99" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>111</v>
       </c>
@@ -3780,8 +4913,14 @@
       <c r="I100" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J100" s="4">
+        <v>1098</v>
+      </c>
+      <c r="L100" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>112</v>
       </c>
@@ -3809,8 +4948,14 @@
       <c r="I101" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J101" s="4">
+        <v>1099</v>
+      </c>
+      <c r="L101" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4983,14 @@
       <c r="I102" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J102" s="4">
+        <v>1100</v>
+      </c>
+      <c r="L102" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>113</v>
       </c>
@@ -3867,8 +5018,14 @@
       <c r="I103" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J103" s="4">
+        <v>1101</v>
+      </c>
+      <c r="L103" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>114</v>
       </c>
@@ -3896,8 +5053,14 @@
       <c r="I104" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J104" s="4">
+        <v>1102</v>
+      </c>
+      <c r="L104" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>57</v>
       </c>
@@ -3925,8 +5088,14 @@
       <c r="I105" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J105" s="4">
+        <v>1103</v>
+      </c>
+      <c r="L105" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>115</v>
       </c>
@@ -3954,8 +5123,14 @@
       <c r="I106" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J106" s="4">
+        <v>1104</v>
+      </c>
+      <c r="L106" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>58</v>
       </c>
@@ -3983,8 +5158,14 @@
       <c r="I107" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J107" s="4">
+        <v>1105</v>
+      </c>
+      <c r="L107" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>59</v>
       </c>
@@ -4012,8 +5193,14 @@
       <c r="I108" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J108" s="4">
+        <v>1106</v>
+      </c>
+      <c r="L108" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>60</v>
       </c>
@@ -4041,8 +5228,14 @@
       <c r="I109" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J109" s="4">
+        <v>1107</v>
+      </c>
+      <c r="L109" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>116</v>
       </c>
@@ -4070,8 +5263,14 @@
       <c r="I110" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="J110" s="4">
+        <v>1108</v>
+      </c>
+      <c r="L110" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="54" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>117</v>
       </c>
@@ -4099,8 +5298,17 @@
       <c r="I111" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="J111" s="4">
+        <v>1109</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L111" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="36" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>61</v>
       </c>
@@ -4128,8 +5336,14 @@
       <c r="I112" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J112" s="4">
+        <v>1110</v>
+      </c>
+      <c r="L112" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>118</v>
       </c>
@@ -4157,8 +5371,14 @@
       <c r="I113" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J113" s="4">
+        <v>1111</v>
+      </c>
+      <c r="L113" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>62</v>
       </c>
@@ -4186,8 +5406,14 @@
       <c r="I114" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J114" s="4">
+        <v>1112</v>
+      </c>
+      <c r="L114" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>63</v>
       </c>
@@ -4215,8 +5441,14 @@
       <c r="I115" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J115" s="4">
+        <v>1113</v>
+      </c>
+      <c r="L115" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>119</v>
       </c>
@@ -4244,8 +5476,14 @@
       <c r="I116" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J116" s="4">
+        <v>1114</v>
+      </c>
+      <c r="L116" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>120</v>
       </c>
@@ -4273,8 +5511,14 @@
       <c r="I117" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J117" s="4">
+        <v>1115</v>
+      </c>
+      <c r="L117" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>64</v>
       </c>
@@ -4302,8 +5546,14 @@
       <c r="I118" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J118" s="4">
+        <v>1116</v>
+      </c>
+      <c r="L118" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>121</v>
       </c>
@@ -4331,8 +5581,14 @@
       <c r="I119" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J119" s="4">
+        <v>1117</v>
+      </c>
+      <c r="L119" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>65</v>
       </c>
@@ -4360,8 +5616,14 @@
       <c r="I120" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J120" s="4">
+        <v>1118</v>
+      </c>
+      <c r="L120" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>66</v>
       </c>
@@ -4389,8 +5651,14 @@
       <c r="I121" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J121" s="4">
+        <v>1119</v>
+      </c>
+      <c r="L121" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>67</v>
       </c>
@@ -4418,8 +5686,14 @@
       <c r="I122" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J122" s="4">
+        <v>1120</v>
+      </c>
+      <c r="L122" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>122</v>
       </c>
@@ -4447,8 +5721,14 @@
       <c r="I123" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J123" s="4">
+        <v>1121</v>
+      </c>
+      <c r="L123" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>68</v>
       </c>
@@ -4476,8 +5756,14 @@
       <c r="I124" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J124" s="4">
+        <v>1103</v>
+      </c>
+      <c r="L124" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>123</v>
       </c>
@@ -4505,8 +5791,14 @@
       <c r="I125" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J125" s="4">
+        <v>1123</v>
+      </c>
+      <c r="L125" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="54" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>124</v>
       </c>
@@ -4534,8 +5826,14 @@
       <c r="I126" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J126" s="4">
+        <v>1124</v>
+      </c>
+      <c r="L126" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>69</v>
       </c>
@@ -4563,8 +5861,14 @@
       <c r="I127" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J127" s="4">
+        <v>1125</v>
+      </c>
+      <c r="L127" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>125</v>
       </c>
@@ -4592,8 +5896,17 @@
       <c r="I128" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J128" s="4">
+        <v>1126</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="L128" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>126</v>
       </c>
@@ -4621,8 +5934,14 @@
       <c r="I129" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J129" s="4">
+        <v>1127</v>
+      </c>
+      <c r="L129" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>70</v>
       </c>
@@ -4650,8 +5969,14 @@
       <c r="I130" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J130" s="4">
+        <v>1128</v>
+      </c>
+      <c r="L130" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>74</v>
       </c>
@@ -4679,833 +6004,839 @@
       <c r="I131" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="J131" s="4">
+        <v>1129</v>
+      </c>
+      <c r="L131" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B132" s="3"/>
     </row>
-    <row r="133" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B133" s="3"/>
     </row>
-    <row r="134" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B134" s="3"/>
     </row>
-    <row r="135" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B135" s="3"/>
     </row>
-    <row r="136" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B136" s="3"/>
     </row>
-    <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B137" s="3"/>
     </row>
-    <row r="138" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B138" s="3"/>
     </row>
-    <row r="139" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B139" s="3"/>
     </row>
-    <row r="140" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B140" s="3"/>
     </row>
-    <row r="141" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B141" s="3"/>
     </row>
-    <row r="142" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B142" s="3"/>
     </row>
-    <row r="143" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B143" s="3"/>
     </row>
-    <row r="144" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B144" s="3"/>
     </row>
-    <row r="145" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B145" s="3"/>
     </row>
-    <row r="146" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B146" s="3"/>
     </row>
-    <row r="147" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B147" s="3"/>
     </row>
-    <row r="148" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B148" s="3"/>
     </row>
-    <row r="149" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B149" s="3"/>
     </row>
-    <row r="150" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B150" s="3"/>
     </row>
-    <row r="151" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B151" s="3"/>
     </row>
-    <row r="152" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B152" s="3"/>
     </row>
-    <row r="153" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B153" s="3"/>
     </row>
-    <row r="154" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B154" s="3"/>
     </row>
-    <row r="155" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B155" s="3"/>
     </row>
-    <row r="156" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B156" s="3"/>
     </row>
-    <row r="157" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B157" s="3"/>
     </row>
-    <row r="158" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B158" s="3"/>
     </row>
-    <row r="159" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B159" s="3"/>
     </row>
-    <row r="160" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B160" s="3"/>
     </row>
-    <row r="161" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B161" s="3"/>
     </row>
-    <row r="162" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B162" s="3"/>
     </row>
-    <row r="163" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B163" s="3"/>
     </row>
-    <row r="164" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B164" s="3"/>
     </row>
-    <row r="165" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B165" s="3"/>
     </row>
-    <row r="166" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B166" s="3"/>
     </row>
-    <row r="167" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B167" s="3"/>
     </row>
-    <row r="168" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B168" s="3"/>
     </row>
-    <row r="169" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B169" s="3"/>
     </row>
-    <row r="170" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B170" s="3"/>
     </row>
-    <row r="171" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B171" s="3"/>
     </row>
-    <row r="172" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B172" s="3"/>
     </row>
-    <row r="173" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B173" s="3"/>
     </row>
-    <row r="174" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B174" s="3"/>
     </row>
-    <row r="175" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B175" s="3"/>
     </row>
-    <row r="176" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B176" s="3"/>
     </row>
-    <row r="177" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B177" s="3"/>
     </row>
-    <row r="178" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B178" s="3"/>
     </row>
-    <row r="179" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B179" s="3"/>
     </row>
-    <row r="180" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B180" s="3"/>
     </row>
-    <row r="181" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B181" s="3"/>
     </row>
-    <row r="182" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B182" s="3"/>
     </row>
-    <row r="183" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B183" s="3"/>
     </row>
-    <row r="184" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B184" s="3"/>
     </row>
-    <row r="185" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B185" s="3"/>
     </row>
-    <row r="186" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B186" s="3"/>
     </row>
-    <row r="187" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B187" s="3"/>
     </row>
-    <row r="188" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B188" s="3"/>
     </row>
-    <row r="189" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B189" s="3"/>
     </row>
-    <row r="190" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B190" s="3"/>
     </row>
-    <row r="191" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B191" s="3"/>
     </row>
-    <row r="192" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B192" s="3"/>
     </row>
-    <row r="193" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B193" s="3"/>
     </row>
-    <row r="194" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B194" s="3"/>
     </row>
-    <row r="195" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B195" s="3"/>
     </row>
-    <row r="196" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B198" s="3"/>
     </row>
-    <row r="199" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B199" s="3"/>
     </row>
-    <row r="200" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B200" s="3"/>
     </row>
-    <row r="201" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B201" s="3"/>
     </row>
-    <row r="202" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B202" s="3"/>
     </row>
-    <row r="203" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B203" s="3"/>
     </row>
-    <row r="204" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B204" s="3"/>
     </row>
-    <row r="205" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B205" s="3"/>
     </row>
-    <row r="206" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B206" s="3"/>
     </row>
-    <row r="207" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B207" s="3"/>
     </row>
-    <row r="208" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B208" s="3"/>
     </row>
-    <row r="209" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B209" s="3"/>
     </row>
-    <row r="210" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B210" s="3"/>
     </row>
-    <row r="211" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B211" s="3"/>
     </row>
-    <row r="212" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B212" s="3"/>
     </row>
-    <row r="213" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B213" s="3"/>
     </row>
-    <row r="214" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B214" s="3"/>
     </row>
-    <row r="215" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B215" s="3"/>
     </row>
-    <row r="216" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B216" s="3"/>
     </row>
-    <row r="217" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B217" s="3"/>
     </row>
-    <row r="218" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B218" s="3"/>
     </row>
-    <row r="219" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B219" s="3"/>
     </row>
-    <row r="220" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B220" s="3"/>
     </row>
-    <row r="221" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B221" s="3"/>
     </row>
-    <row r="222" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B222" s="3"/>
     </row>
-    <row r="223" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B223" s="3"/>
     </row>
-    <row r="224" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B224" s="3"/>
     </row>
-    <row r="225" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B225" s="3"/>
     </row>
-    <row r="226" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B226" s="3"/>
     </row>
-    <row r="227" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B227" s="3"/>
     </row>
-    <row r="228" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B228" s="3"/>
     </row>
-    <row r="229" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B229" s="3"/>
     </row>
-    <row r="230" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B230" s="3"/>
     </row>
-    <row r="231" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B231" s="3"/>
     </row>
-    <row r="232" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B232" s="3"/>
     </row>
-    <row r="233" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B233" s="3"/>
     </row>
-    <row r="234" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B234" s="3"/>
     </row>
-    <row r="235" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B235" s="3"/>
     </row>
-    <row r="236" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B236" s="3"/>
     </row>
-    <row r="237" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B237" s="3"/>
     </row>
-    <row r="238" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B238" s="3"/>
     </row>
-    <row r="239" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B239" s="3"/>
     </row>
-    <row r="240" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B240" s="3"/>
     </row>
-    <row r="241" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B241" s="3"/>
     </row>
-    <row r="242" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B242" s="3"/>
     </row>
-    <row r="243" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B243" s="3"/>
     </row>
-    <row r="244" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B244" s="3"/>
     </row>
-    <row r="245" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B245" s="3"/>
     </row>
-    <row r="246" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B246" s="3"/>
     </row>
-    <row r="247" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B247" s="3"/>
     </row>
-    <row r="248" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B248" s="3"/>
     </row>
-    <row r="249" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B249" s="3"/>
     </row>
-    <row r="250" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B250" s="3"/>
     </row>
-    <row r="251" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B251" s="3"/>
     </row>
-    <row r="252" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B252" s="3"/>
     </row>
-    <row r="253" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B253" s="3"/>
     </row>
-    <row r="254" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B254" s="3"/>
     </row>
-    <row r="255" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B255" s="3"/>
     </row>
-    <row r="256" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B256" s="3"/>
     </row>
-    <row r="257" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B257" s="3"/>
     </row>
-    <row r="258" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B258" s="3"/>
     </row>
-    <row r="259" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B259" s="3"/>
     </row>
-    <row r="260" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B260" s="3"/>
     </row>
-    <row r="261" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B261" s="3"/>
     </row>
-    <row r="262" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B262" s="3"/>
     </row>
-    <row r="263" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B263" s="3"/>
     </row>
-    <row r="264" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B264" s="3"/>
     </row>
-    <row r="265" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B265" s="3"/>
     </row>
-    <row r="266" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B266" s="3"/>
     </row>
-    <row r="267" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B267" s="3"/>
     </row>
-    <row r="268" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B268" s="3"/>
     </row>
-    <row r="269" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B269" s="3"/>
     </row>
-    <row r="270" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B270" s="3"/>
     </row>
-    <row r="271" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B271" s="3"/>
     </row>
-    <row r="272" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B272" s="3"/>
     </row>
-    <row r="273" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B273" s="3"/>
     </row>
-    <row r="274" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B274" s="3"/>
     </row>
-    <row r="275" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B275" s="3"/>
     </row>
-    <row r="276" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B276" s="3"/>
     </row>
-    <row r="277" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B277" s="3"/>
     </row>
-    <row r="278" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B278" s="3"/>
     </row>
-    <row r="279" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B279" s="3"/>
     </row>
-    <row r="280" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B280" s="3"/>
     </row>
-    <row r="281" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B281" s="3"/>
     </row>
-    <row r="282" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B282" s="3"/>
     </row>
-    <row r="283" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B283" s="3"/>
     </row>
-    <row r="284" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B284" s="3"/>
     </row>
-    <row r="285" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B285" s="3"/>
     </row>
-    <row r="286" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B286" s="3"/>
     </row>
-    <row r="287" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B287" s="3"/>
     </row>
-    <row r="288" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B288" s="3"/>
     </row>
-    <row r="289" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B289" s="3"/>
     </row>
-    <row r="290" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B290" s="3"/>
     </row>
-    <row r="291" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B291" s="3"/>
     </row>
-    <row r="292" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B292" s="3"/>
     </row>
-    <row r="293" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B293" s="3"/>
     </row>
-    <row r="294" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B294" s="3"/>
     </row>
-    <row r="295" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B295" s="3"/>
     </row>
-    <row r="296" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B296" s="3"/>
     </row>
-    <row r="297" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B297" s="3"/>
     </row>
-    <row r="298" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B298" s="3"/>
     </row>
-    <row r="299" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B299" s="3"/>
     </row>
-    <row r="300" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B300" s="3"/>
     </row>
-    <row r="301" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B301" s="3"/>
     </row>
-    <row r="302" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B302" s="3"/>
     </row>
-    <row r="303" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B303" s="3"/>
     </row>
-    <row r="304" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B304" s="3"/>
     </row>
-    <row r="305" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B305" s="3"/>
     </row>
-    <row r="306" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B306" s="3"/>
     </row>
-    <row r="307" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B307" s="3"/>
     </row>
-    <row r="308" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B308" s="3"/>
     </row>
-    <row r="309" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B309" s="3"/>
     </row>
-    <row r="310" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B310" s="3"/>
     </row>
-    <row r="311" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B311" s="3"/>
     </row>
-    <row r="312" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B312" s="3"/>
     </row>
-    <row r="313" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B313" s="3"/>
     </row>
-    <row r="314" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B314" s="3"/>
     </row>
-    <row r="315" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B315" s="3"/>
     </row>
-    <row r="316" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B316" s="3"/>
     </row>
-    <row r="317" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B317" s="3"/>
     </row>
-    <row r="318" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B318" s="3"/>
     </row>
-    <row r="319" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B319" s="3"/>
     </row>
-    <row r="320" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B320" s="3"/>
     </row>
-    <row r="321" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B321" s="3"/>
     </row>
-    <row r="322" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B322" s="3"/>
     </row>
-    <row r="323" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B323" s="3"/>
     </row>
-    <row r="324" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B324" s="3"/>
     </row>
-    <row r="325" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B325" s="3"/>
     </row>
-    <row r="326" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B326" s="3"/>
     </row>
-    <row r="327" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B327" s="3"/>
     </row>
-    <row r="328" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B328" s="3"/>
     </row>
-    <row r="329" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B329" s="3"/>
     </row>
-    <row r="330" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B330" s="3"/>
     </row>
-    <row r="331" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B331" s="3"/>
     </row>
-    <row r="332" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B332" s="3"/>
     </row>
-    <row r="333" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B333" s="3"/>
     </row>
-    <row r="334" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B334" s="3"/>
     </row>
-    <row r="335" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B335" s="3"/>
     </row>
-    <row r="336" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B336" s="3"/>
     </row>
-    <row r="337" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B337" s="3"/>
     </row>
-    <row r="338" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B338" s="3"/>
     </row>
-    <row r="339" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B339" s="3"/>
     </row>
-    <row r="340" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B340" s="3"/>
     </row>
-    <row r="341" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B341" s="3"/>
     </row>
-    <row r="342" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B342" s="3"/>
     </row>
-    <row r="343" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B343" s="3"/>
     </row>
-    <row r="344" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B344" s="3"/>
     </row>
-    <row r="345" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B345" s="3"/>
     </row>
-    <row r="346" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B346" s="3"/>
     </row>
-    <row r="347" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B347" s="3"/>
     </row>
-    <row r="348" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B348" s="3"/>
     </row>
-    <row r="349" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B349" s="3"/>
     </row>
-    <row r="350" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B350" s="3"/>
     </row>
-    <row r="351" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B351" s="3"/>
     </row>
-    <row r="352" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B352" s="3"/>
     </row>
-    <row r="353" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B353" s="3"/>
     </row>
-    <row r="354" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B354" s="3"/>
     </row>
-    <row r="355" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B355" s="3"/>
     </row>
-    <row r="356" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B356" s="3"/>
     </row>
-    <row r="357" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B357" s="3"/>
     </row>
-    <row r="358" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B358" s="3"/>
     </row>
-    <row r="359" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B359" s="3"/>
     </row>
-    <row r="360" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B360" s="3"/>
     </row>
-    <row r="361" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B361" s="3"/>
     </row>
-    <row r="362" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B362" s="3"/>
     </row>
-    <row r="363" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B363" s="3"/>
     </row>
-    <row r="364" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B364" s="3"/>
     </row>
-    <row r="365" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B365" s="3"/>
     </row>
-    <row r="366" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B366" s="3"/>
     </row>
-    <row r="367" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B367" s="3"/>
     </row>
-    <row r="368" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B368" s="3"/>
     </row>
-    <row r="369" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B369" s="3"/>
     </row>
-    <row r="370" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B370" s="3"/>
     </row>
-    <row r="371" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B371" s="3"/>
     </row>
-    <row r="372" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B372" s="3"/>
     </row>
-    <row r="373" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B373" s="3"/>
     </row>
-    <row r="374" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B374" s="3"/>
     </row>
-    <row r="375" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B375" s="3"/>
     </row>
-    <row r="376" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B376" s="3"/>
     </row>
-    <row r="377" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B377" s="3"/>
     </row>
-    <row r="378" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B378" s="3"/>
     </row>
-    <row r="379" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B379" s="3"/>
     </row>
-    <row r="380" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B380" s="3"/>
     </row>
-    <row r="381" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B381" s="3"/>
     </row>
-    <row r="382" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B382" s="3"/>
     </row>
-    <row r="383" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B383" s="3"/>
     </row>
-    <row r="384" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B384" s="3"/>
     </row>
-    <row r="385" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B385" s="3"/>
     </row>
-    <row r="386" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B386" s="3"/>
     </row>
-    <row r="387" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B387" s="3"/>
     </row>
-    <row r="388" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B388" s="3"/>
     </row>
-    <row r="389" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B389" s="3"/>
     </row>
-    <row r="390" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B390" s="3"/>
     </row>
-    <row r="391" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B391" s="3"/>
     </row>
-    <row r="392" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B392" s="3"/>
     </row>
-    <row r="393" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B393" s="3"/>
     </row>
-    <row r="394" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B394" s="3"/>
     </row>
-    <row r="395" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B395" s="3"/>
     </row>
-    <row r="396" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B396" s="3"/>
     </row>
-    <row r="397" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B397" s="3"/>
     </row>
-    <row r="398" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B398" s="3"/>
     </row>
-    <row r="399" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B399" s="3"/>
     </row>
-    <row r="400" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B400" s="3"/>
     </row>
-    <row r="401" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B401" s="3"/>
     </row>
-    <row r="402" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B402" s="3"/>
     </row>
-    <row r="403" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B403" s="3"/>
     </row>
-    <row r="404" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B404" s="3"/>
     </row>
-    <row r="405" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B405" s="3"/>
     </row>
-    <row r="406" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B406" s="3"/>
     </row>
-    <row r="407" spans="2:2" ht="18" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B407" s="3"/>
     </row>
   </sheetData>
